--- a/Documentatie/kerntaak 1/1.2 - Strokenplanning(JG Marketing).xlsx
+++ b/Documentatie/kerntaak 1/1.2 - Strokenplanning(JG Marketing).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stage\JG Webmarketing\PlanningSite\Documentatie\kerntaak 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stage\JG Webmarketing\PlanningSite\Documentatie\Kerntaak 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552C8F12-0EA0-4355-80AE-65AC5EA7979C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580D51AE-FBB7-4B11-94D7-23A1ABE69E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EB305112-F852-4FD8-9E53-EAFE25E50BCF}"/>
   </bookViews>
@@ -1766,6 +1766,28 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFFFFF00"/>
       </font>
@@ -1870,28 +1892,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1914,13 +1914,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D615A84-6B8B-4B9F-B654-F4786C0878DA}" name="Table1" displayName="Table1" ref="A2:D30" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D615A84-6B8B-4B9F-B654-F4786C0878DA}" name="Table1" displayName="Table1" ref="A2:D30" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A2:D30" xr:uid="{9C8F184E-808F-4B59-9887-77BD375BC8DA}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C578AF74-95EC-4329-939F-32A95DE5DCA8}" name="Datum" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{B3654F35-5201-4C5C-A142-FDE837C6E2CF}" name="Versie" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{2BD874D6-EBA2-4246-86A2-22E295FA7B0A}" name="Wie" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{6CB61C23-2056-499A-A04D-0CAFAF30E542}" name="Wijziging" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{C578AF74-95EC-4329-939F-32A95DE5DCA8}" name="Datum" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B3654F35-5201-4C5C-A142-FDE837C6E2CF}" name="Versie" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{2BD874D6-EBA2-4246-86A2-22E295FA7B0A}" name="Wie" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{6CB61C23-2056-499A-A04D-0CAFAF30E542}" name="Wijziging" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2226,7 +2226,7 @@
   <dimension ref="A1:AU108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="46">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E19" s="84"/>
       <c r="F19" s="93">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="J19" s="93">
         <f>IF($D19-SUM($E19:I19)&gt;J$5-SUM(J$7:J18),J$5-SUM(J$7:J18),$D19-SUM($E19:I19))</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="K19" s="93">
         <f>IF($D19-SUM($E19:J19)&gt;K$5-SUM(K$7:K18),K$5-SUM(K$7:K18),$D19-SUM($E19:J19))</f>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="84"/>
       <c r="F20" s="93">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="J20" s="93">
         <f>IF($D20-SUM($E20:I20)&gt;J$5-SUM(J$7:J19),J$5-SUM(J$7:J19),$D20-SUM($E20:I20))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="93">
         <f>IF($D20-SUM($E20:J20)&gt;K$5-SUM(K$7:K19),K$5-SUM(K$7:K19),$D20-SUM($E20:J20))</f>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="M20" s="93">
         <f>IF($D20-SUM($E20:L20)&gt;M$5-SUM(M$7:M19),M$5-SUM(M$7:M19),$D20-SUM($E20:L20))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="93">
         <f>IF($D20-SUM($E20:M20)&gt;N$5-SUM(N$7:N19),N$5-SUM(N$7:N19),$D20-SUM($E20:M20))</f>
@@ -5238,7 +5238,7 @@
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="46">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E21" s="84"/>
       <c r="F21" s="93">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="J21" s="93">
         <f>IF($D21-SUM($E21:I21)&gt;J$5-SUM(J$7:J20),J$5-SUM(J$7:J20),$D21-SUM($E21:I21))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="93">
         <f>IF($D21-SUM($E21:J21)&gt;K$5-SUM(K$7:K20),K$5-SUM(K$7:K20),$D21-SUM($E21:J21))</f>
@@ -5271,23 +5271,23 @@
       </c>
       <c r="M21" s="93">
         <f>IF($D21-SUM($E21:L21)&gt;M$5-SUM(M$7:M20),M$5-SUM(M$7:M20),$D21-SUM($E21:L21))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" s="93">
         <f>IF($D21-SUM($E21:M21)&gt;N$5-SUM(N$7:N20),N$5-SUM(N$7:N20),$D21-SUM($E21:M21))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O21" s="93">
         <f>IF($D21-SUM($E21:N21)&gt;O$5-SUM(O$7:O20),O$5-SUM(O$7:O20),$D21-SUM($E21:N21))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P21" s="93">
         <f>IF($D21-SUM($E21:O21)&gt;P$5-SUM(P$7:P20),P$5-SUM(P$7:P20),$D21-SUM($E21:O21))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q21" s="93">
         <f>IF($D21-SUM($E21:P21)&gt;Q$5-SUM(Q$7:Q20),Q$5-SUM(Q$7:Q20),$D21-SUM($E21:P21))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R21" s="93">
         <f>IF($D21-SUM($E21:Q21)&gt;R$5-SUM(R$7:R20),R$5-SUM(R$7:R20),$D21-SUM($E21:Q21))</f>
@@ -5299,11 +5299,11 @@
       </c>
       <c r="T21" s="93">
         <f>IF($D21-SUM($E21:S21)&gt;T$5-SUM(T$7:T20),T$5-SUM(T$7:T20),$D21-SUM($E21:S21))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U21" s="93">
         <f>IF($D21-SUM($E21:T21)&gt;U$5-SUM(U$7:U20),U$5-SUM(U$7:U20),$D21-SUM($E21:T21))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="93">
         <f>IF($D21-SUM($E21:U21)&gt;V$5-SUM(V$7:V20),V$5-SUM(V$7:V20),$D21-SUM($E21:U21))</f>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="C22" s="45"/>
       <c r="D22" s="46">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E22" s="84"/>
       <c r="F22" s="93">
@@ -5456,11 +5456,11 @@
       </c>
       <c r="N22" s="93">
         <f>IF($D22-SUM($E22:M22)&gt;N$5-SUM(N$7:N21),N$5-SUM(N$7:N21),$D22-SUM($E22:M22))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O22" s="93">
         <f>IF($D22-SUM($E22:N22)&gt;O$5-SUM(O$7:O21),O$5-SUM(O$7:O21),$D22-SUM($E22:N22))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P22" s="93">
         <f>IF($D22-SUM($E22:O22)&gt;P$5-SUM(P$7:P21),P$5-SUM(P$7:P21),$D22-SUM($E22:O22))</f>
@@ -5484,19 +5484,19 @@
       </c>
       <c r="U22" s="93">
         <f>IF($D22-SUM($E22:T22)&gt;U$5-SUM(U$7:U21),U$5-SUM(U$7:U21),$D22-SUM($E22:T22))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V22" s="93">
         <f>IF($D22-SUM($E22:U22)&gt;V$5-SUM(V$7:V21),V$5-SUM(V$7:V21),$D22-SUM($E22:U22))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W22" s="93">
         <f>IF($D22-SUM($E22:V22)&gt;W$5-SUM(W$7:W21),W$5-SUM(W$7:W21),$D22-SUM($E22:V22))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X22" s="93">
         <f>IF($D22-SUM($E22:W22)&gt;X$5-SUM(X$7:X21),X$5-SUM(X$7:X21),$D22-SUM($E22:W22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="93">
         <f>IF($D22-SUM($E22:X22)&gt;Y$5-SUM(Y$7:Y21),Y$5-SUM(Y$7:Y21),$D22-SUM($E22:X22))</f>
@@ -5599,7 +5599,7 @@
         <v>67</v>
       </c>
       <c r="C23" s="47">
-        <v>44468</v>
+        <v>44477</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="84"/>
@@ -5822,15 +5822,15 @@
       </c>
       <c r="O24" s="93">
         <f>IF($D24-SUM($E24:N24)&gt;O$5-SUM(O$7:O23),O$5-SUM(O$7:O23),$D24-SUM($E24:N24))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="93">
         <f>IF($D24-SUM($E24:O24)&gt;P$5-SUM(P$7:P23),P$5-SUM(P$7:P23),$D24-SUM($E24:O24))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="93">
         <f>IF($D24-SUM($E24:P24)&gt;Q$5-SUM(Q$7:Q23),Q$5-SUM(Q$7:Q23),$D24-SUM($E24:P24))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R24" s="93">
         <f>IF($D24-SUM($E24:Q24)&gt;R$5-SUM(R$7:R23),R$5-SUM(R$7:R23),$D24-SUM($E24:Q24))</f>
@@ -5858,7 +5858,7 @@
       </c>
       <c r="X24" s="93">
         <f>IF($D24-SUM($E24:W24)&gt;X$5-SUM(X$7:X23),X$5-SUM(X$7:X23),$D24-SUM($E24:W24))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y24" s="93">
         <f>IF($D24-SUM($E24:X24)&gt;Y$5-SUM(Y$7:Y23),Y$5-SUM(Y$7:Y23),$D24-SUM($E24:X24))</f>
@@ -5870,11 +5870,11 @@
       </c>
       <c r="AA24" s="93">
         <f>IF($D24-SUM($E24:Z24)&gt;AA$5-SUM(AA$7:AA23),AA$5-SUM(AA$7:AA23),$D24-SUM($E24:Z24))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB24" s="93">
         <f>IF($D24-SUM($E24:AA24)&gt;AB$5-SUM(AB$7:AB23),AB$5-SUM(AB$7:AB23),$D24-SUM($E24:AA24))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="93">
         <f>IF($D24-SUM($E24:AB24)&gt;AC$5-SUM(AC$7:AC23),AC$5-SUM(AC$7:AC23),$D24-SUM($E24:AB24))</f>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="Q25" s="93">
         <f>IF($D25-SUM($E25:P25)&gt;Q$5-SUM(Q$7:Q24),Q$5-SUM(Q$7:Q24),$D25-SUM($E25:P25))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="93">
         <f>IF($D25-SUM($E25:Q25)&gt;R$5-SUM(R$7:R24),R$5-SUM(R$7:R24),$D25-SUM($E25:Q25))</f>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="T25" s="93">
         <f>IF($D25-SUM($E25:S25)&gt;T$5-SUM(T$7:T24),T$5-SUM(T$7:T24),$D25-SUM($E25:S25))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U25" s="93">
         <f>IF($D25-SUM($E25:T25)&gt;U$5-SUM(U$7:U24),U$5-SUM(U$7:U24),$D25-SUM($E25:T25))</f>
@@ -6055,11 +6055,11 @@
       </c>
       <c r="AB25" s="93">
         <f>IF($D25-SUM($E25:AA25)&gt;AB$5-SUM(AB$7:AB24),AB$5-SUM(AB$7:AB24),$D25-SUM($E25:AA25))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC25" s="93">
         <f>IF($D25-SUM($E25:AB25)&gt;AC$5-SUM(AC$7:AC24),AC$5-SUM(AC$7:AC24),$D25-SUM($E25:AB25))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD25" s="93">
         <f>IF($D25-SUM($E25:AC25)&gt;AD$5-SUM(AD$7:AD24),AD$5-SUM(AD$7:AD24),$D25-SUM($E25:AC25))</f>
@@ -6208,11 +6208,11 @@
       </c>
       <c r="U26" s="93">
         <f>IF($D26-SUM($E26:T26)&gt;U$5-SUM(U$7:U25),U$5-SUM(U$7:U25),$D26-SUM($E26:T26))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V26" s="93">
         <f>IF($D26-SUM($E26:U26)&gt;V$5-SUM(V$7:V25),V$5-SUM(V$7:V25),$D26-SUM($E26:U26))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W26" s="93">
         <f>IF($D26-SUM($E26:V26)&gt;W$5-SUM(W$7:W25),W$5-SUM(W$7:W25),$D26-SUM($E26:V26))</f>
@@ -6240,15 +6240,15 @@
       </c>
       <c r="AC26" s="93">
         <f>IF($D26-SUM($E26:AB26)&gt;AC$5-SUM(AC$7:AC25),AC$5-SUM(AC$7:AC25),$D26-SUM($E26:AB26))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD26" s="93">
         <f>IF($D26-SUM($E26:AC26)&gt;AD$5-SUM(AD$7:AD25),AD$5-SUM(AD$7:AD25),$D26-SUM($E26:AC26))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE26" s="93">
         <f>IF($D26-SUM($E26:AD26)&gt;AE$5-SUM(AE$7:AE25),AE$5-SUM(AE$7:AE25),$D26-SUM($E26:AD26))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF26" s="93">
         <f>IF($D26-SUM($E26:AE26)&gt;AF$5-SUM(AF$7:AF25),AF$5-SUM(AF$7:AF25),$D26-SUM($E26:AE26))</f>
@@ -6323,7 +6323,7 @@
         <v>67</v>
       </c>
       <c r="C27" s="47">
-        <v>44475</v>
+        <v>44484</v>
       </c>
       <c r="D27" s="46"/>
       <c r="E27" s="84"/>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="C28" s="45"/>
       <c r="D28" s="46">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E28" s="84"/>
       <c r="F28" s="93">
@@ -6578,11 +6578,11 @@
       </c>
       <c r="W28" s="93">
         <f>IF($D28-SUM($E28:V28)&gt;W$5-SUM(W$7:W27),W$5-SUM(W$7:W27),$D28-SUM($E28:V28))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X28" s="93">
         <f>IF($D28-SUM($E28:W28)&gt;X$5-SUM(X$7:X27),X$5-SUM(X$7:X27),$D28-SUM($E28:W28))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="93">
         <f>IF($D28-SUM($E28:X28)&gt;Y$5-SUM(Y$7:Y27),Y$5-SUM(Y$7:Y27),$D28-SUM($E28:X28))</f>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="AE28" s="93">
         <f>IF($D28-SUM($E28:AD28)&gt;AE$5-SUM(AE$7:AE27),AE$5-SUM(AE$7:AE27),$D28-SUM($E28:AD28))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF28" s="93">
         <f>IF($D28-SUM($E28:AE28)&gt;AF$5-SUM(AF$7:AF27),AF$5-SUM(AF$7:AF27),$D28-SUM($E28:AE28))</f>
@@ -6622,11 +6622,11 @@
       </c>
       <c r="AH28" s="93">
         <f>IF($D28-SUM($E28:AG28)&gt;AH$5-SUM(AH$7:AH27),AH$5-SUM(AH$7:AH27),$D28-SUM($E28:AG28))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI28" s="93">
         <f>IF($D28-SUM($E28:AH28)&gt;AI$5-SUM(AI$7:AI27),AI$5-SUM(AI$7:AI27),$D28-SUM($E28:AH28))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ28" s="93">
         <f>IF($D28-SUM($E28:AI28)&gt;AJ$5-SUM(AJ$7:AJ27),AJ$5-SUM(AJ$7:AJ27),$D28-SUM($E28:AI28))</f>
@@ -20667,50 +20667,50 @@
     <mergeCell ref="AU1:AU4"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:AU5 F6:AU7">
-    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>OR(WEEKDAY(F$6)=1,WEEKDAY(F$6)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:F5">
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
       <formula>OR(WEEKDAY(D$6)=1,WEEKDAY(D$6)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D107">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>C8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:AU107">
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
       <formula>OR(WEEKDAY(F$6)=1,WEEKDAY(F$6)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:AU107">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>AND(F8&gt;0,MOD(ROW(F8),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
       <formula>AND(F8&gt;0,MOD(ROW(F8),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:AU107">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO8:AU107">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:AU107">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C8=F$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO8:AS107">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21147,15 +21147,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5890FD8E2AB6E4DAA8DE63570D6AFA3" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="5b7fdcf29434dad92f0ac3a0dd293b1e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45fa6d14-934b-44a0-9747-c035f1438e9b" xmlns:ns3="9b23f896-9a04-4114-b73b-55cbe372e205" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30fa0da3bc8d4f53acf812560ee6efb4" ns2:_="" ns3:_="">
     <xsd:import namespace="45fa6d14-934b-44a0-9747-c035f1438e9b"/>
@@ -21346,6 +21337,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -21353,14 +21353,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF05DD8-5416-4E9B-BA80-991A3650D1B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21375,6 +21367,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
